--- a/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3F9AF78-D62E-485D-8153-CD779881B914}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C94F8A4-EE5B-3C45-AEA5-7CF618C58172}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="22940" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -72,127 +77,75 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -200,17 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,134 +497,170 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3">
         <v>3920</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="4">
         <v>3921</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="4">
         <v>3922</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="4">
         <v>3923</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="4">
         <v>3932</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="4">
         <v>3933</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>3934</v>
       </c>
       <c r="I1" s="4">
         <v>3935</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="4">
         <v>3936</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="4">
         <v>3937</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="4">
         <v>3938</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="5">
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>11.78</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>11.27</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>11.21</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>12.95</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>11.67</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>11.2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="2">
         <v>11.65</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>12.05</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>11.11</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>11.34</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <v>11.12</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="2">
         <v>12.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>9.25</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="1">
         <v>10.37</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="1">
         <v>11.52</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="1">
         <v>10.51</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="1">
         <v>11.18</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="1">
         <v>10.42</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="1">
         <v>11.51</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="1">
         <v>8.42</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="1">
         <v>8.74</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="1">
         <v>10.25</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="1">
         <v>9.98</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10.24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10.63</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12.45</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11.44</v>
+      </c>
+      <c r="I4" s="1">
+        <v>12.93</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10.87</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.69</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C94F8A4-EE5B-3C45-AEA5-7CF618C58172}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{380D7765-9478-FA42-A55C-F38319A9395C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="22940" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>W-1</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -661,6 +664,47 @@
       </c>
       <c r="M4" s="1">
         <v>9.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9.89</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10.35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12.18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10.15</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10.11</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12.35</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11.11</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{380D7765-9478-FA42-A55C-F38319A9395C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C380CF0-4CEC-2241-BCAF-180CF9546BFE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="22940" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>W-1</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -705,6 +708,47 @@
       </c>
       <c r="M5" s="1">
         <v>11.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11.09</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.34</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.86</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="J6" s="1">
+        <v>11.27</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10.56</v>
+      </c>
+      <c r="L6" s="1">
+        <v>12.78</v>
+      </c>
+      <c r="M6" s="1">
+        <v>11.14</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C380CF0-4CEC-2241-BCAF-180CF9546BFE}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61FF2C9C-6009-CB44-9753-65009930EB9D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="22940" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>W-1</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -155,17 +158,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -697,7 +714,7 @@
       <c r="I5" s="1">
         <v>11.3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>10.15</v>
       </c>
       <c r="K5" s="1">
@@ -738,7 +755,7 @@
       <c r="I6" s="1">
         <v>10.88</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="6">
         <v>11.27</v>
       </c>
       <c r="K6" s="1">
@@ -749,6 +766,35 @@
       </c>
       <c r="M6" s="1">
         <v>11.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.67</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.61</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11.52</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10.27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10.44</v>
+      </c>
+      <c r="I7" s="1">
+        <v>11.51</v>
       </c>
     </row>
   </sheetData>

--- a/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Food.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/jnelson4_usc_edu/Documents/Github/PFAS_met_cage/VQC R work/Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61FF2C9C-6009-CB44-9753-65009930EB9D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A26F493-E66A-4340-9B74-C95A15D27594}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="22940" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,12 +520,12 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3">
         <v>3920</v>
       </c>
@@ -563,7 +563,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -645,7 +645,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -686,7 +686,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -727,7 +727,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -768,7 +768,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -798,6 +798,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:M7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
